--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DDFD9A-1434-5849-A715-588661B48F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E976CE-75C6-1245-BA48-03665B454DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17580" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Exploratory data analysis</t>
   </si>
   <si>
-    <t>Correlation, causation, and confounding</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descriptive Stats Wrap-Up </t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t xml:space="preserve">Inference for categorical data </t>
   </si>
   <si>
-    <t xml:space="preserve">Decision rrrors and power </t>
-  </si>
-  <si>
     <t>Inference for regression models</t>
   </si>
   <si>
@@ -228,6 +222,9 @@
   </si>
   <si>
     <t>hw05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision errors and power </t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -507,21 +504,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -532,10 +514,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +750,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -797,7 +793,7 @@
     <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="59">
+      <c r="C2" s="66">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -810,7 +806,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -818,7 +814,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="61"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
@@ -829,17 +825,17 @@
         <v>21</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="59">
+      <c r="C4" s="66">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -852,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -860,7 +856,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="61"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
@@ -868,22 +864,22 @@
         <v>44951</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="59">
+      <c r="C6" s="66">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -893,10 +889,10 @@
         <v>44956</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -904,7 +900,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="60"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
@@ -912,22 +908,22 @@
         <v>44958</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="59">
+      <c r="C8" s="66">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -937,41 +933,41 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="21">
         <v>44965</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>25</v>
+      <c r="F9" s="60" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>53</v>
+      <c r="H9" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="59">
+      <c r="C10" s="66">
         <v>5</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -980,7 +976,7 @@
       <c r="E10" s="19">
         <v>44970</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="61" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8"/>
@@ -990,7 +986,7 @@
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="60"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
@@ -998,14 +994,14 @@
         <v>44972</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>54</v>
+      <c r="H11" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1015,7 +1011,7 @@
       <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="66">
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1034,7 +1030,7 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="60"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
@@ -1042,22 +1038,22 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="70" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="59">
+      <c r="C14" s="66">
         <v>7</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -1067,10 +1063,10 @@
         <v>44984</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1078,7 +1074,7 @@
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
@@ -1086,22 +1082,22 @@
         <v>47150</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="59">
+      <c r="C16" s="66">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -1110,36 +1106,36 @@
       <c r="E16" s="19">
         <v>44990</v>
       </c>
-      <c r="F16" s="66" t="s">
-        <v>32</v>
+      <c r="F16" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="21">
         <v>44992</v>
       </c>
-      <c r="F17" s="65" t="s">
-        <v>30</v>
+      <c r="F17" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>57</v>
+      <c r="H17" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1149,7 +1145,7 @@
       <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="69">
         <v>9</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -1172,7 +1168,7 @@
       <c r="B19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="35" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1185,7 @@
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="59">
+      <c r="C20" s="66">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1199,10 +1195,10 @@
         <v>45004</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1210,7 +1206,7 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="25" t="s">
         <v>15</v>
       </c>
@@ -1218,22 +1214,22 @@
         <v>45006</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="70" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="59">
+      <c r="C22" s="66">
         <v>11</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -1243,10 +1239,10 @@
         <v>45011</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1254,7 +1250,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="25" t="s">
         <v>15</v>
       </c>
@@ -1262,22 +1258,22 @@
         <v>45013</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="70" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="59">
+      <c r="C24" s="66">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1286,11 +1282,11 @@
       <c r="E24" s="19">
         <v>45018</v>
       </c>
-      <c r="F24" s="67" t="s">
-        <v>35</v>
+      <c r="F24" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
@@ -1298,7 +1294,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="25" t="s">
         <v>15</v>
       </c>
@@ -1306,22 +1302,22 @@
         <v>45020</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="70" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="59">
+      <c r="C26" s="66">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1331,10 +1327,10 @@
         <v>45025</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1342,7 +1338,7 @@
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="25" t="s">
         <v>15</v>
       </c>
@@ -1350,14 +1346,14 @@
         <v>45027</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>48</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="70" t="s">
-        <v>62</v>
+      <c r="I27" s="64" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1365,7 +1361,7 @@
       <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="66">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1375,7 +1371,7 @@
         <v>45032</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1383,23 +1379,23 @@
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="21">
         <v>45034</v>
       </c>
-      <c r="F29" s="65" t="s">
-        <v>36</v>
+      <c r="F29" s="60" t="s">
+        <v>34</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="70" t="s">
-        <v>61</v>
+      <c r="I29" s="64" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1407,7 +1403,7 @@
       <c r="B30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="66">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1430,7 +1426,7 @@
       <c r="B31" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="60"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="25" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1438,8 @@
       </c>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
-      <c r="I31" s="71" t="s">
-        <v>60</v>
+      <c r="I31" s="65" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1453,7 +1449,7 @@
       <c r="B32" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="66">
         <v>16</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -1472,7 +1468,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="60"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="21"/>
       <c r="E33" s="13"/>
       <c r="F33" s="42"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/MATH108-S24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E976CE-75C6-1245-BA48-03665B454DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7739F6-BC1A-784D-B684-16207916A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17580" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="500" windowWidth="19720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Ch 24-25</t>
   </si>
   <si>
-    <t>q1</t>
-  </si>
-  <si>
     <t>hw01</t>
   </si>
   <si>
@@ -221,10 +218,10 @@
     <t>proj</t>
   </si>
   <si>
-    <t>hw05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Decision errors and power </t>
+  </si>
+  <si>
+    <t>q01</t>
   </si>
 </sst>
 </file>
@@ -750,7 +747,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -827,9 +824,7 @@
       <c r="G3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="H3" s="18"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -870,11 +865,9 @@
         <v>38</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>49</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
@@ -914,10 +907,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -958,10 +951,10 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -998,10 +991,10 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1044,10 +1037,10 @@
         <v>41</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1088,10 +1081,10 @@
         <v>43</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1107,7 +1100,7 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>44</v>
@@ -1132,10 +1125,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1220,10 +1213,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1264,10 +1257,10 @@
         <v>46</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1308,10 +1301,10 @@
         <v>47</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1353,7 +1346,7 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1395,7 +1388,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1439,7 +1432,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7739F6-BC1A-784D-B684-16207916A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116E7FF-26C7-C84D-A010-480AA848ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4760" yWindow="500" windowWidth="19720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Simple linear regression</t>
   </si>
   <si>
-    <t>Multiple linear regression</t>
-  </si>
-  <si>
     <t>Ch 1-2</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Ch 7</t>
   </si>
   <si>
-    <t>Ch 8.1-3</t>
-  </si>
-  <si>
     <t>Ch 12</t>
   </si>
   <si>
@@ -222,6 +216,9 @@
   </si>
   <si>
     <t>q01</t>
+  </si>
+  <si>
+    <t>Ch7</t>
   </si>
 </sst>
 </file>
@@ -747,7 +744,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -803,7 +800,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -822,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="11"/>
@@ -843,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -862,10 +859,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" s="63"/>
     </row>
@@ -882,10 +879,10 @@
         <v>44956</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -904,13 +901,13 @@
         <v>35</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -926,10 +923,10 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -951,10 +948,10 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -991,10 +988,10 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1034,13 +1031,13 @@
         <v>26</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1059,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1078,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1100,10 +1097,10 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1125,10 +1122,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1191,7 +1188,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1210,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1235,7 +1232,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1254,13 +1251,13 @@
         <v>32</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1279,7 +1276,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
@@ -1298,13 +1295,13 @@
         <v>33</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1323,7 +1320,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1342,11 +1339,11 @@
         <v>31</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1388,7 +1385,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1432,7 +1429,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116E7FF-26C7-C84D-A010-480AA848ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85776B3-7E8C-AB4D-AC1D-241F0F074F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="500" windowWidth="19720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53140" yWindow="680" windowWidth="19720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Exploratory data analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Descriptive Stats Wrap-Up </t>
-  </si>
-  <si>
     <t xml:space="preserve">Probability Distributions </t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Ch7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptive Stats &amp; Regression Wrap-Up </t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -800,7 +800,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -819,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="11"/>
@@ -840,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -859,10 +859,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="63"/>
     </row>
@@ -882,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -898,16 +898,16 @@
         <v>44958</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -923,10 +923,10 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -944,14 +944,14 @@
         <v>44965</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -984,14 +984,14 @@
         <v>44972</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1028,16 +1028,16 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1053,10 +1053,10 @@
         <v>44984</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1072,16 +1072,16 @@
         <v>47150</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1097,10 +1097,10 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1118,14 +1118,14 @@
         <v>44992</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1185,10 +1185,10 @@
         <v>45004</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1204,16 +1204,16 @@
         <v>45006</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1229,10 +1229,10 @@
         <v>45011</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1248,16 +1248,16 @@
         <v>45013</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1273,10 +1273,10 @@
         <v>45018</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
@@ -1292,16 +1292,16 @@
         <v>45020</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1317,10 +1317,10 @@
         <v>45025</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1336,14 +1336,14 @@
         <v>45027</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1361,7 +1361,7 @@
         <v>45032</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1380,12 +1380,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1429,7 +1429,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85776B3-7E8C-AB4D-AC1D-241F0F074F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36163C-E2B8-1C42-8740-241192A470B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53140" yWindow="680" windowWidth="19720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58720" yWindow="1020" windowWidth="19720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">Descriptive Stats &amp; Regression Wrap-Up </t>
+  </si>
+  <si>
+    <t>hw01, ic01</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -951,7 +954,7 @@
         <v>47</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36163C-E2B8-1C42-8740-241192A470B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F91FD-3214-DB45-8C26-1F3259AD71CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58720" yWindow="1020" windowWidth="19720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -116,9 +116,6 @@
     <t xml:space="preserve">Principles of hypothesis testing </t>
   </si>
   <si>
-    <t xml:space="preserve">Central Limit Theorem </t>
-  </si>
-  <si>
     <t>Foundations of Statistical Inference Wrap-Up</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Ch 11</t>
   </si>
   <si>
-    <t>Ch 13</t>
-  </si>
-  <si>
     <t>Ch 14</t>
   </si>
   <si>
@@ -221,14 +215,14 @@
     <t xml:space="preserve">Descriptive Stats &amp; Regression Wrap-Up </t>
   </si>
   <si>
-    <t>hw01, ic01</t>
+    <t>ic01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -293,6 +287,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -413,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -514,6 +515,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,7 +751,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -790,7 +794,7 @@
     <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="66">
+      <c r="C2" s="67">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -803,7 +807,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -811,7 +815,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="68"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
@@ -822,7 +826,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="11"/>
@@ -830,7 +834,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="66">
+      <c r="C4" s="67">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -843,7 +847,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -851,7 +855,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="68"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
@@ -862,17 +866,17 @@
         <v>23</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="66">
+      <c r="C6" s="67">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -885,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -893,7 +897,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
@@ -901,22 +905,22 @@
         <v>44958</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="66">
+      <c r="C8" s="67">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -926,10 +930,10 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -939,28 +943,32 @@
       <c r="B9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="21">
         <v>44965</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="F9" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="66">
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="67">
         <v>5</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -969,17 +977,19 @@
       <c r="E10" s="19">
         <v>44970</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>18</v>
+      <c r="F10" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
@@ -987,14 +997,14 @@
         <v>44972</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1004,7 +1014,7 @@
       <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="67">
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1023,7 +1033,7 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
@@ -1031,22 +1041,20 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" s="59"/>
       <c r="H13" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="66">
+      <c r="C14" s="67">
         <v>7</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -1056,10 +1064,10 @@
         <v>44984</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1067,7 +1075,7 @@
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
@@ -1075,22 +1083,22 @@
         <v>47150</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="66">
+      <c r="C16" s="67">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -1100,10 +1108,10 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1113,7 +1121,7 @@
       <c r="B17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="25" t="s">
         <v>15</v>
       </c>
@@ -1121,14 +1129,14 @@
         <v>44992</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1138,7 +1146,7 @@
       <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="70">
         <v>9</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -1161,7 +1169,7 @@
       <c r="B19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="35" t="s">
         <v>15</v>
       </c>
@@ -1178,7 +1186,7 @@
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="66">
+      <c r="C20" s="67">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1188,10 +1196,10 @@
         <v>45004</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1199,7 +1207,7 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="25" t="s">
         <v>15</v>
       </c>
@@ -1207,22 +1215,22 @@
         <v>45006</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="66">
+      <c r="C22" s="67">
         <v>11</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -1232,10 +1240,10 @@
         <v>45011</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1243,7 +1251,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="25" t="s">
         <v>15</v>
       </c>
@@ -1251,22 +1259,22 @@
         <v>45013</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="66">
+      <c r="C24" s="67">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1276,10 +1284,10 @@
         <v>45018</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
@@ -1287,7 +1295,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="25" t="s">
         <v>15</v>
       </c>
@@ -1295,22 +1303,22 @@
         <v>45020</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="66">
+      <c r="C26" s="67">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1320,10 +1328,10 @@
         <v>45025</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1331,7 +1339,7 @@
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="67"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="25" t="s">
         <v>15</v>
       </c>
@@ -1339,14 +1347,14 @@
         <v>45027</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1354,7 +1362,7 @@
       <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="67">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1364,7 +1372,7 @@
         <v>45032</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1375,7 +1383,7 @@
       <c r="B29" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="25" t="s">
         <v>15</v>
       </c>
@@ -1383,12 +1391,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1396,7 +1404,7 @@
       <c r="B30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="67">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1419,7 +1427,7 @@
       <c r="B31" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="25" t="s">
         <v>15</v>
       </c>
@@ -1432,7 +1440,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1442,7 +1450,7 @@
       <c r="B32" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="67">
         <v>16</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -1461,7 +1469,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="67"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="21"/>
       <c r="E33" s="13"/>
       <c r="F33" s="42"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F91FD-3214-DB45-8C26-1F3259AD71CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC77A8F-2D13-BC4D-A40B-1A1A5EC4EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>NO CLASS - Monday Schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Probability: Introduction </t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Presentations </t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Exploratory data analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Probability Distributions </t>
-  </si>
-  <si>
     <t xml:space="preserve">Principles of confidence intervals </t>
   </si>
   <si>
@@ -215,7 +209,13 @@
     <t xml:space="preserve">Descriptive Stats &amp; Regression Wrap-Up </t>
   </si>
   <si>
-    <t>ic01</t>
+    <t>q02, ic01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability Introduction &amp; Distributions </t>
+  </si>
+  <si>
+    <t>Snow Day</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -804,10 +804,10 @@
         <v>44942</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -823,10 +823,10 @@
         <v>44944</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="11"/>
@@ -844,10 +844,10 @@
         <v>44949</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -863,13 +863,13 @@
         <v>44951</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" s="63"/>
     </row>
@@ -886,10 +886,10 @@
         <v>44956</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -905,16 +905,16 @@
         <v>44958</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -930,10 +930,10 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -951,23 +951,23 @@
         <v>44965</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="67">
         <v>5</v>
       </c>
@@ -977,18 +977,18 @@
       <c r="E10" s="19">
         <v>44970</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>59</v>
+      <c r="F10" s="61" t="s">
+        <v>60</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="59" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="68"/>
       <c r="D11" s="25" t="s">
         <v>15</v>
@@ -996,15 +996,15 @@
       <c r="E11" s="21">
         <v>44972</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>18</v>
+      <c r="F11" s="60" t="s">
+        <v>57</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1041,14 +1041,14 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1064,10 +1064,10 @@
         <v>44984</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1083,16 +1083,16 @@
         <v>47150</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1108,10 +1108,10 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1129,14 +1129,14 @@
         <v>44992</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1196,10 +1196,10 @@
         <v>45004</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1215,16 +1215,16 @@
         <v>45006</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1240,10 +1240,10 @@
         <v>45011</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1259,16 +1259,16 @@
         <v>45013</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1284,10 +1284,10 @@
         <v>45018</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
@@ -1303,16 +1303,16 @@
         <v>45020</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1328,10 +1328,10 @@
         <v>45025</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1347,14 +1347,14 @@
         <v>45027</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1372,7 +1372,7 @@
         <v>45032</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1391,12 +1391,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1414,7 +1414,7 @@
         <v>45039</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1435,12 +1435,12 @@
         <v>45041</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
         <v>45046</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="49"/>
       <c r="H32" s="49"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC77A8F-2D13-BC4D-A40B-1A1A5EC4EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1FBDE-1C3D-E64C-828E-A13A056DD5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -212,10 +212,10 @@
     <t>q02, ic01</t>
   </si>
   <si>
-    <t xml:space="preserve">Probability Introduction &amp; Distributions </t>
-  </si>
-  <si>
     <t>Snow Day</t>
+  </si>
+  <si>
+    <t>Probability Introduction</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -516,6 +516,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,7 +754,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -794,7 +797,7 @@
     <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="67">
+      <c r="C2" s="68">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -815,7 +818,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="69"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
@@ -834,7 +837,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="67">
+      <c r="C4" s="68">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -855,7 +858,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="69"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
@@ -876,7 +879,7 @@
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="67">
+      <c r="C6" s="68">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -897,7 +900,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
@@ -920,7 +923,7 @@
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="67">
+      <c r="C8" s="68">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -943,7 +946,7 @@
       <c r="B9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
@@ -964,32 +967,32 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="67">
+      <c r="B10" s="28"/>
+      <c r="C10" s="68">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="30">
         <v>44970</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="F10" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1017,7 @@
       <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="68">
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1033,7 +1036,7 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="68"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="59" t="s">
@@ -1054,7 +1057,7 @@
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="67">
+      <c r="C14" s="68">
         <v>7</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -1075,7 +1078,7 @@
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1101,7 @@
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="67">
+      <c r="C16" s="68">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -1121,7 +1124,7 @@
       <c r="B17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="25" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1149,7 @@
       <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="71">
         <v>9</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -1169,7 +1172,7 @@
       <c r="B19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="35" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1189,7 @@
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="67">
+      <c r="C20" s="68">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1207,7 +1210,7 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="68"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="25" t="s">
         <v>15</v>
       </c>
@@ -1230,7 +1233,7 @@
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="67">
+      <c r="C22" s="68">
         <v>11</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -1251,7 +1254,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="25" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1277,7 @@
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="67">
+      <c r="C24" s="68">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1295,7 +1298,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="68"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="25" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1321,7 @@
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="67">
+      <c r="C26" s="68">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1339,7 +1342,7 @@
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="68"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="25" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1365,7 @@
       <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="68">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1383,7 +1386,7 @@
       <c r="B29" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="25" t="s">
         <v>15</v>
       </c>
@@ -1404,7 +1407,7 @@
       <c r="B30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="68">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1427,7 +1430,7 @@
       <c r="B31" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="25" t="s">
         <v>15</v>
       </c>
@@ -1450,7 +1453,7 @@
       <c r="B32" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="68">
         <v>16</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -1469,7 +1472,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="68"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="21"/>
       <c r="E33" s="13"/>
       <c r="F33" s="42"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1FBDE-1C3D-E64C-828E-A13A056DD5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690F06C-4932-E14F-BFF7-F046B0D8031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Probability Introduction</t>
+  </si>
+  <si>
+    <t>hw03, ic02</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1142,7 @@
         <v>47</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690F06C-4932-E14F-BFF7-F046B0D8031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A7A3F-0B63-EF49-8939-9DB8A2145685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>hw03, ic02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inference Wrap-Up &amp; Proposal check in </t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -522,6 +528,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -756,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -800,7 +809,7 @@
     <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="68">
+      <c r="C2" s="69">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -821,7 +830,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="70"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
@@ -840,7 +849,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="68">
+      <c r="C4" s="69">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -861,7 +870,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="70"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
@@ -882,7 +891,7 @@
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="68">
+      <c r="C6" s="69">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -903,7 +912,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="69"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
@@ -926,7 +935,7 @@
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="68">
+      <c r="C8" s="69">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -949,7 +958,7 @@
       <c r="B9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
@@ -974,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="28"/>
-      <c r="C10" s="68">
+      <c r="C10" s="69">
         <v>5</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -995,7 +1004,7 @@
       <c r="B11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1029,7 @@
       <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="69">
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1039,7 +1048,7 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="69"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1069,7 @@
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="68">
+      <c r="C14" s="69">
         <v>7</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -1081,7 +1090,7 @@
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
@@ -1104,7 +1113,7 @@
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="68">
+      <c r="C16" s="69">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -1127,7 +1136,7 @@
       <c r="B17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="25" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1161,7 @@
       <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="72">
         <v>9</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -1175,7 +1184,7 @@
       <c r="B19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="35" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1201,7 @@
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="68">
+      <c r="C20" s="69">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1213,7 +1222,7 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="69"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="25" t="s">
         <v>15</v>
       </c>
@@ -1236,7 +1245,7 @@
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="68">
+      <c r="C22" s="69">
         <v>11</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -1257,7 +1266,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="25" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1289,7 @@
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="68">
+      <c r="C24" s="69">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1301,7 +1310,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="69"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="25" t="s">
         <v>15</v>
       </c>
@@ -1309,10 +1318,10 @@
         <v>45020</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25" s="59" t="s">
         <v>53</v>
@@ -1323,8 +1332,10 @@
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="68">
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="69">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1333,31 +1344,29 @@
       <c r="E26" s="19">
         <v>45025</v>
       </c>
-      <c r="F26" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="F26" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="21">
         <v>45027</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>41</v>
-      </c>
+      <c r="F27" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="59"/>
       <c r="H27" s="13"/>
       <c r="I27" s="64" t="s">
         <v>52</v>
@@ -1365,10 +1374,8 @@
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="68">
+      <c r="B28" s="17"/>
+      <c r="C28" s="69">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1377,8 +1384,8 @@
       <c r="E28" s="19">
         <v>45032</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>30</v>
+      <c r="F28" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1386,18 +1393,16 @@
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="69"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="21">
         <v>45034</v>
       </c>
-      <c r="F29" s="60" t="s">
-        <v>30</v>
+      <c r="F29" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -1410,7 +1415,7 @@
       <c r="B30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="69">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1433,7 +1438,7 @@
       <c r="B31" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="25" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1461,7 @@
       <c r="B32" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="69">
         <v>16</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -1475,7 +1480,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="69"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="21"/>
       <c r="E33" s="13"/>
       <c r="F33" s="42"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A7A3F-0B63-EF49-8939-9DB8A2145685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913F97A-D1CA-7849-B269-DDBB86E10402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Inference for numerical data</t>
   </si>
   <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
     <t>Inference Wrap-Up</t>
   </si>
   <si>
@@ -221,10 +218,13 @@
     <t>hw03, ic02</t>
   </si>
   <si>
-    <t xml:space="preserve">Inference Wrap-Up &amp; Proposal check in </t>
-  </si>
-  <si>
-    <t>TBD</t>
+    <t>Inference practice</t>
+  </si>
+  <si>
+    <t>ic03</t>
+  </si>
+  <si>
+    <t>Proposal check in &amp; ANOVA</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -547,6 +547,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +770,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -822,7 +826,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -841,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="11"/>
@@ -862,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -881,10 +885,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="63"/>
     </row>
@@ -904,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -920,16 +924,16 @@
         <v>44958</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -945,10 +949,10 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -966,16 +970,16 @@
         <v>44965</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -993,7 +997,7 @@
         <v>44970</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -1012,14 +1016,14 @@
         <v>44972</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1056,14 +1060,14 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1082,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1101,13 +1105,13 @@
         <v>24</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1123,10 +1127,10 @@
         <v>44990</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1148,10 +1152,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1214,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1233,13 +1237,13 @@
         <v>26</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1258,7 +1262,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1277,13 +1281,13 @@
         <v>28</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1299,17 +1303,17 @@
         <v>45018</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>40</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G24" s="17"/>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="59" t="s">
+        <v>12</v>
+      </c>
       <c r="C25" s="70"/>
       <c r="D25" s="25" t="s">
         <v>15</v>
@@ -1317,17 +1321,15 @@
       <c r="E25" s="21">
         <v>45020</v>
       </c>
-      <c r="F25" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>41</v>
-      </c>
+      <c r="F25" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="59"/>
       <c r="H25" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1345,17 +1347,17 @@
         <v>45025</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="74" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="59"/>
       <c r="C27" s="70"/>
       <c r="D27" s="25" t="s">
         <v>15</v>
@@ -1363,13 +1365,15 @@
       <c r="E27" s="21">
         <v>45027</v>
       </c>
-      <c r="F27" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="59"/>
+      <c r="F27" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1385,9 +1389,11 @@
         <v>45032</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
@@ -1402,12 +1408,14 @@
         <v>45034</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>40</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1451,7 +1459,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913F97A-D1CA-7849-B269-DDBB86E10402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173EAB7-A3D1-0C4E-AA50-8FE8085E5F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Inference for numerical data</t>
   </si>
   <si>
-    <t>Inference Wrap-Up</t>
-  </si>
-  <si>
     <t>Simple linear regression</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>proj-check-in</t>
   </si>
   <si>
-    <t>proj-proposal</t>
-  </si>
-  <si>
     <t>proj</t>
   </si>
   <si>
@@ -218,13 +212,19 @@
     <t>hw03, ic02</t>
   </si>
   <si>
-    <t>Inference practice</t>
-  </si>
-  <si>
-    <t>ic03</t>
-  </si>
-  <si>
-    <t>Proposal check in &amp; ANOVA</t>
+    <t>Inference Wrap-Up &amp; Proposal check-in</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>NO CLASS - Ab Sick</t>
+  </si>
+  <si>
+    <t>proj-proposal, ic03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inference Q&amp;A </t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -490,9 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -518,9 +515,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,6 +527,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,8 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,7 +767,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -779,6 +776,7 @@
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -826,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -845,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="11"/>
@@ -866,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -885,12 +883,12 @@
         <v>22</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="63"/>
+        <v>52</v>
+      </c>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
@@ -908,7 +906,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -924,16 +922,16 @@
         <v>44958</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -949,17 +947,17 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="70"/>
@@ -969,17 +967,17 @@
       <c r="E9" s="21">
         <v>44965</v>
       </c>
-      <c r="F9" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="64" t="s">
+      <c r="F9" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>41</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -996,8 +994,8 @@
       <c r="E10" s="30">
         <v>44970</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>58</v>
+      <c r="F10" s="65" t="s">
+        <v>56</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -1005,7 +1003,7 @@
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="70"/>
@@ -1015,15 +1013,15 @@
       <c r="E11" s="21">
         <v>44972</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>56</v>
+      <c r="F11" s="59" t="s">
+        <v>54</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>57</v>
+      <c r="H11" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1060,14 +1058,14 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58" t="s">
         <v>43</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1086,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1104,14 +1102,14 @@
       <c r="F15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="64" t="s">
+      <c r="G15" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="58" t="s">
         <v>44</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1126,18 +1124,18 @@
       <c r="E16" s="19">
         <v>44990</v>
       </c>
-      <c r="F16" s="61" t="s">
-        <v>53</v>
+      <c r="F16" s="60" t="s">
+        <v>51</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="70"/>
@@ -1147,15 +1145,15 @@
       <c r="E17" s="21">
         <v>44992</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="59" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="64" t="s">
-        <v>60</v>
+      <c r="H17" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1218,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1236,14 +1234,14 @@
       <c r="F21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="64" t="s">
+      <c r="G21" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="58" t="s">
         <v>46</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1262,7 +1260,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1280,40 +1278,42 @@
       <c r="F23" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="64" t="s">
+      <c r="G23" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="58" t="s">
         <v>47</v>
       </c>
+      <c r="I23" s="62" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="C24" s="69">
         <v>12</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="D24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="30">
         <v>45018</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="58"/>
       <c r="C25" s="70"/>
       <c r="D25" s="25" t="s">
         <v>15</v>
@@ -1321,22 +1321,20 @@
       <c r="E25" s="21">
         <v>45020</v>
       </c>
-      <c r="F25" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>48</v>
+      <c r="F25" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="69">
         <v>13</v>
       </c>
@@ -1346,18 +1344,20 @@
       <c r="E26" s="19">
         <v>45025</v>
       </c>
-      <c r="F26" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="17"/>
+      <c r="F26" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="74" t="s">
-        <v>62</v>
-      </c>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="59"/>
+      <c r="B27" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="C27" s="70"/>
       <c r="D27" s="25" t="s">
         <v>15</v>
@@ -1365,15 +1365,13 @@
       <c r="E27" s="21">
         <v>45027</v>
       </c>
-      <c r="F27" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>39</v>
-      </c>
+      <c r="F27" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="58"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="64" t="s">
-        <v>51</v>
+      <c r="I27" s="62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1388,18 +1386,18 @@
       <c r="E28" s="19">
         <v>45032</v>
       </c>
-      <c r="F28" s="61" t="s">
-        <v>27</v>
+      <c r="F28" s="60" t="s">
+        <v>60</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="70"/>
       <c r="D29" s="25" t="s">
         <v>15</v>
@@ -1407,15 +1405,15 @@
       <c r="E29" s="21">
         <v>45034</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="59" t="s">
-        <v>40</v>
+      <c r="G29" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="64" t="s">
-        <v>50</v>
+      <c r="I29" s="62" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1432,7 +1430,7 @@
       <c r="E30" s="19">
         <v>45039</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="8"/>
@@ -1440,33 +1438,33 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="70"/>
       <c r="D31" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="49">
         <v>45041</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="65" t="s">
-        <v>49</v>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="63" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="57" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="69">
@@ -1475,15 +1473,15 @@
       <c r="D32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="51">
         <v>45046</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="54"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173EAB7-A3D1-0C4E-AA50-8FE8085E5F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52204FE0-3D57-C345-A12E-9DB5FA9FAD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -116,9 +116,6 @@
     <t xml:space="preserve">Inference for categorical data </t>
   </si>
   <si>
-    <t>Inference for regression models</t>
-  </si>
-  <si>
     <t>Inference for numerical data</t>
   </si>
   <si>
@@ -149,12 +146,6 @@
     <t>Ch 19-20</t>
   </si>
   <si>
-    <t>Ch 22</t>
-  </si>
-  <si>
-    <t>Ch 24-25</t>
-  </si>
-  <si>
     <t>hw01</t>
   </si>
   <si>
@@ -212,19 +203,25 @@
     <t>hw03, ic02</t>
   </si>
   <si>
-    <t>Inference Wrap-Up &amp; Proposal check-in</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
     <t>NO CLASS - Ab Sick</t>
   </si>
   <si>
     <t>proj-proposal, ic03</t>
   </si>
   <si>
-    <t xml:space="preserve">Inference Q&amp;A </t>
+    <t>Inference practice</t>
+  </si>
+  <si>
+    <t>Quiz 5 &amp; Proposal check-in</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>ic03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inference Wrap-Up </t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -531,6 +528,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,7 +767,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -811,7 +811,7 @@
     <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="69">
+      <c r="C2" s="70">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -824,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -832,7 +832,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="71"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
@@ -843,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="11"/>
@@ -851,7 +851,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="69">
+      <c r="C4" s="70">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -864,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
@@ -872,7 +872,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="71"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
@@ -883,17 +883,17 @@
         <v>22</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="69">
+      <c r="C6" s="70">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -906,7 +906,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -914,7 +914,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="70"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
@@ -922,22 +922,22 @@
         <v>44958</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="69">
+      <c r="C8" s="70">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -947,10 +947,10 @@
         <v>44963</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -960,7 +960,7 @@
       <c r="B9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
@@ -968,16 +968,16 @@
         <v>44965</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -985,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="28"/>
-      <c r="C10" s="69">
+      <c r="C10" s="70">
         <v>5</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -995,7 +995,7 @@
         <v>44970</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -1006,7 +1006,7 @@
       <c r="B11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
@@ -1014,14 +1014,14 @@
         <v>44972</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1031,7 +1031,7 @@
       <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="70">
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1050,7 +1050,7 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
@@ -1058,20 +1058,20 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="69">
+      <c r="C14" s="70">
         <v>7</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -1084,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1092,7 +1092,7 @@
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I15" s="62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="69">
+      <c r="C16" s="70">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -1125,10 +1125,10 @@
         <v>44990</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1138,7 +1138,7 @@
       <c r="B17" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="25" t="s">
         <v>15</v>
       </c>
@@ -1150,10 +1150,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1163,7 +1163,7 @@
       <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="73">
         <v>9</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -1186,7 +1186,7 @@
       <c r="B19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="35" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1203,7 @@
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="69">
+      <c r="C20" s="70">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1224,7 +1224,7 @@
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="25" t="s">
         <v>15</v>
       </c>
@@ -1235,19 +1235,19 @@
         <v>26</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="69">
+      <c r="C22" s="70">
         <v>11</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -1257,10 +1257,10 @@
         <v>45011</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -1268,7 +1268,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="25" t="s">
         <v>15</v>
       </c>
@@ -1276,16 +1276,16 @@
         <v>45013</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1295,7 +1295,7 @@
       <c r="B24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="70">
         <v>12</v>
       </c>
       <c r="D24" s="29" t="s">
@@ -1304,8 +1304,8 @@
       <c r="E24" s="30">
         <v>45018</v>
       </c>
-      <c r="F24" s="74" t="s">
-        <v>61</v>
+      <c r="F24" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="31"/>
@@ -1314,7 +1314,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="58"/>
-      <c r="C25" s="70"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="25" t="s">
         <v>15</v>
       </c>
@@ -1322,20 +1322,20 @@
         <v>45020</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="69">
+      <c r="C26" s="70">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1345,39 +1345,39 @@
         <v>45025</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="70"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="21">
         <v>45027</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="68" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="13"/>
       <c r="I27" s="62" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="69">
+      <c r="B28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="70">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1386,19 +1386,19 @@
       <c r="E28" s="19">
         <v>45032</v>
       </c>
-      <c r="F28" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="F28" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="17"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="67" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="58"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="25" t="s">
         <v>15</v>
       </c>
@@ -1406,14 +1406,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>39</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G29" s="58"/>
       <c r="H29" s="13"/>
       <c r="I29" s="62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1421,7 +1419,7 @@
       <c r="B30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="70">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1444,7 +1442,7 @@
       <c r="B31" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="25" t="s">
         <v>15</v>
       </c>
@@ -1457,7 +1455,7 @@
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
       <c r="I31" s="63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1467,7 +1465,7 @@
       <c r="B32" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="70">
         <v>16</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -1486,7 +1484,7 @@
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="21"/>
       <c r="E33" s="13"/>
       <c r="F33" s="42"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52204FE0-3D57-C345-A12E-9DB5FA9FAD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E7F0AE-AAA1-D444-8951-8C2C2BD851D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -206,22 +206,19 @@
     <t>NO CLASS - Ab Sick</t>
   </si>
   <si>
-    <t>proj-proposal, ic03</t>
-  </si>
-  <si>
     <t>Inference practice</t>
   </si>
   <si>
     <t>Quiz 5 &amp; Proposal check-in</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>ic03</t>
   </si>
   <si>
     <t xml:space="preserve">Inference Wrap-Up </t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -521,9 +518,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,6 +525,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,9 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,7 +761,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1304,7 +1298,7 @@
       <c r="E24" s="30">
         <v>45018</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="68" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="28"/>
@@ -1321,8 +1315,8 @@
       <c r="E25" s="21">
         <v>45020</v>
       </c>
-      <c r="F25" s="68" t="s">
-        <v>58</v>
+      <c r="F25" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58" t="s">
@@ -1351,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="67"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
@@ -1363,13 +1357,13 @@
       <c r="E27" s="21">
         <v>45027</v>
       </c>
-      <c r="F27" s="68" t="s">
-        <v>59</v>
+      <c r="F27" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="13"/>
       <c r="I27" s="62" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1386,18 +1380,20 @@
       <c r="E28" s="19">
         <v>45032</v>
       </c>
-      <c r="F28" s="75" t="s">
-        <v>62</v>
+      <c r="F28" s="69" t="s">
+        <v>60</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="67" t="s">
-        <v>61</v>
+      <c r="I28" s="66" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="C29" s="71"/>
       <c r="D29" s="25" t="s">
         <v>15</v>
@@ -1405,7 +1401,7 @@
       <c r="E29" s="21">
         <v>45034</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="59" t="s">
         <v>60</v>
       </c>
       <c r="G29" s="58"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/MATH108-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E7F0AE-AAA1-D444-8951-8C2C2BD851D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AEEC5E-B24D-C24E-8BC0-0FA81F71EB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -173,9 +173,6 @@
     <t>proj-final</t>
   </si>
   <si>
-    <t>proj-check-in</t>
-  </si>
-  <si>
     <t>proj</t>
   </si>
   <si>
@@ -212,13 +209,13 @@
     <t>Quiz 5 &amp; Proposal check-in</t>
   </si>
   <si>
-    <t>ic03</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inference Wrap-Up </t>
   </si>
   <si>
     <t>proj-proposal</t>
+  </si>
+  <si>
+    <t>proj-check-in, ic03</t>
   </si>
 </sst>
 </file>
@@ -761,7 +758,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -880,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="61"/>
     </row>
@@ -925,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -944,7 +941,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -989,7 +986,7 @@
         <v>44970</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -1008,14 +1005,14 @@
         <v>44972</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="58" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1052,7 +1049,7 @@
         <v>44979</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="58" t="s">
@@ -1119,7 +1116,7 @@
         <v>44990</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>34</v>
@@ -1147,7 +1144,7 @@
         <v>42</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1299,7 +1296,7 @@
         <v>45018</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="31"/>
@@ -1316,11 +1313,11 @@
         <v>45020</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="62" t="s">
         <v>44</v>
@@ -1358,12 +1355,12 @@
         <v>45027</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="13"/>
       <c r="I27" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1381,13 +1378,11 @@
         <v>45032</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="66" t="s">
-        <v>59</v>
-      </c>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
@@ -1402,12 +1397,12 @@
         <v>45034</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G29" s="58"/>
       <c r="H29" s="13"/>
       <c r="I29" s="62" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
